--- a/biology/Zoologie/Eurycheilichthys/Eurycheilichthys.xlsx
+++ b/biology/Zoologie/Eurycheilichthys/Eurycheilichthys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurycheilichthys est un genre de poissons d'eau douce de la famille des Loricariidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les espèces de ce genre sont endémiques de l'État du Rio Grande do Sul au Brésil, à l'exception d'E. pantherinus qui, en plus du Rio Grande do Sul, se trouve également dans le Sud de Santa Catarina.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils vivent dans les ruisseaux ou petites rivières à moyen ou fort débit avec un subtrat majoritairement composé de sables ou de pierres, la présence de macrophytes y est quasi-nulle, passant le plus clair de leur temps sur les pierres détachées du subtrat.
 </t>
@@ -573,18 +589,20 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (3 juillet 2023)[1]
-Eurycheilichthys apocremnus Reis, 2017[2]
-Eurycheilichthys castaneus Reis, 2017[2]
-Eurycheilichthys coryphaenus Reis, 2017[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (3 juillet 2023)
+Eurycheilichthys apocremnus Reis, 2017
+Eurycheilichthys castaneus Reis, 2017
+Eurycheilichthys coryphaenus Reis, 2017
 Eurycheilichthys limulus Reis &amp; Schaefer, 1998
-Eurycheilichthys luisae Reis, 2017[2]
+Eurycheilichthys luisae Reis, 2017
 Eurycheilichthys pantherinus (Reis &amp; Schaefer, 1992)
-Eurycheilichthys paucidens Reis, 2017[2]
-Eurycheilichthys planus Reis, 2017[2]
-Eurycheilichthys vacariensis Reis, 2017[2]</t>
+Eurycheilichthys paucidens Reis, 2017
+Eurycheilichthys planus Reis, 2017
+Eurycheilichthys vacariensis Reis, 2017</t>
         </is>
       </c>
     </row>
@@ -612,7 +630,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Eurycheilichthys signifie "Poisson à large lèvre", en référence à sa lèvre inférieure très large typique du genre, il est composé du grec : 
 Eury- "εὐρύς" (eurús) voulant dire "large"
@@ -645,9 +665,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1992, le genre fut nommé "Eurycheilus" mais Reis et Schaefer l'ont changé en "Eurycheilichthys" en 1993 car le genre Eurycheilus appartenait à un genre nomen dubium de céphalopode éteint (Septfontaine, 1970)[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1992, le genre fut nommé "Eurycheilus" mais Reis et Schaefer l'ont changé en "Eurycheilichthys" en 1993 car le genre Eurycheilus appartenait à un genre nomen dubium de céphalopode éteint (Septfontaine, 1970).
 </t>
         </is>
       </c>
@@ -676,7 +698,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Roberto E. Reis &amp; Scott A. Schaefer, 1992, « Eurycheilus pantherinus (Siluroidei: Loricariidae), a New Genus and Species of Hypoptopomatinae from Southern Brazil », Copeia, 1992 n. 1, p. 215-223. DOI : 10.2307/1446554.</t>
         </is>
